--- a/img/hon160n-E3-2023-pepsin.xlsx
+++ b/img/hon160n-E3-2023-pepsin.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,111 +455,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Formulation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ace. (mg)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ace. std. dev (mg)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Ace. Err (mg)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>pepsin (mg/L)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>Time (min)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Formulation</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pepsin (mg/L)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ace. (mg)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ace. std. dev (mg)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Ace. Err (mg)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>166.37224523</v>
-      </c>
-      <c r="G2" t="n">
-        <v>75.35103591390286</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>28.48001457989765</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>164.415029</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -549,28 +561,38 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>266.0799673857143</v>
+        <v>166.37224523</v>
       </c>
       <c r="G4" t="n">
-        <v>89.29049305910662</v>
+        <v>164.415029</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33.7486341538193</v>
-      </c>
+        <v>75.35103591390286</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28.48001457989765</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B5" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Tablet</t>
@@ -583,21 +605,35 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
+        <v>266.0799673857143</v>
+      </c>
+      <c r="G5" t="n">
         <v>273.436678</v>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>89.29049305910662</v>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>33.7486341538193</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
         <v>6</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Tablet</t>
@@ -607,27 +643,37 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>334.6190090571428</v>
       </c>
       <c r="G6" t="n">
+        <v>335.734763</v>
+      </c>
+      <c r="H6" t="n">
         <v>74.08185187458707</v>
       </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
         <v>28.00030810332593</v>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -641,20 +687,34 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
+        <v>372.7177423</v>
+      </c>
+      <c r="G7" t="n">
         <v>335.734763</v>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>72.26749662793341</v>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>27.31454627867296</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -665,27 +725,37 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>372.7177423</v>
+        <v>457.5045974571428</v>
       </c>
       <c r="G8" t="n">
-        <v>72.26749662793341</v>
+        <v>439.564904</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>27.31454627867296</v>
-      </c>
+        <v>174.9449506058822</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>66.12297606137757</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -699,20 +769,34 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>335.734763</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>452.6328855285714</v>
+      </c>
+      <c r="G9" t="n">
+        <v>465.52244</v>
+      </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>96.46205674679518</v>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>36.45923044368861</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -723,27 +807,37 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>457.5045974571428</v>
+        <v>521.7337550285714</v>
       </c>
       <c r="G10" t="n">
-        <v>174.9449506058822</v>
+        <v>496.671482</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>66.12297606137757</v>
-      </c>
+        <v>114.7446129842634</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>43.36938717724483</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -757,20 +851,34 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>439.564904</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>541.0140500142858</v>
+      </c>
+      <c r="G11" t="n">
+        <v>507.054496</v>
+      </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>92.659895124711</v>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>35.02214842990166</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B12" t="n">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -781,27 +889,37 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>452.6328855285714</v>
+        <v>544.7307817857143</v>
       </c>
       <c r="G12" t="n">
-        <v>96.46205674679518</v>
+        <v>548.586553</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>36.45923044368861</v>
-      </c>
+        <v>94.44849869283777</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>35.69817703495112</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -815,20 +933,34 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>465.52244</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>590.2495755428572</v>
+      </c>
+      <c r="G13" t="n">
+        <v>574.544088</v>
+      </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>132.1294087723938</v>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>49.94022235567857</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -839,27 +971,37 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>521.7337550285714</v>
+        <v>599.9298822857143</v>
       </c>
       <c r="G14" t="n">
-        <v>114.7446129842634</v>
+        <v>590.118609</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>43.36938717724483</v>
-      </c>
+        <v>96.5486717282655</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>36.49196782951474</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -873,20 +1015,34 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>496.671482</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>626.5493784142857</v>
+      </c>
+      <c r="G15" t="n">
+        <v>605.693131</v>
+      </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>117.5657546407005</v>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>44.43567849670448</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B16" t="n">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -897,27 +1053,37 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>541.0140500142858</v>
+        <v>661.3227643714287</v>
       </c>
       <c r="G16" t="n">
-        <v>92.659895124711</v>
+        <v>621.267652</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>35.02214842990166</v>
-      </c>
+        <v>138.6661995098337</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>52.41089702192665</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -931,20 +1097,34 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>507.054496</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>625.03494245</v>
+      </c>
+      <c r="G17" t="n">
+        <v>631.650666</v>
+      </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>157.2102971321943</v>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>64.18083504753427</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B18" t="n">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -955,397 +1135,38 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>544.7307817857143</v>
+        <v>664.4663037571428</v>
       </c>
       <c r="G18" t="n">
-        <v>94.44849869283777</v>
+        <v>652.416694</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>35.69817703495112</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>548.586553</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>590.2495755428572</v>
-      </c>
-      <c r="G20" t="n">
-        <v>132.1294087723938</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49.94022235567857</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>574.544088</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B22" t="n">
-        <v>22</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>599.9298822857143</v>
-      </c>
-      <c r="G22" t="n">
-        <v>96.5486717282655</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>36.49196782951474</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>590.118609</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B24" t="n">
-        <v>24</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>626.5493784142857</v>
-      </c>
-      <c r="G24" t="n">
-        <v>117.5657546407005</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44.43567849670448</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>605.693131</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B26" t="n">
-        <v>26</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>661.3227643714287</v>
-      </c>
-      <c r="G26" t="n">
-        <v>138.6661995098337</v>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-      <c r="I26" t="n">
-        <v>52.41089702192665</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>621.267652</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B28" t="n">
-        <v>28</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>625.03494245</v>
-      </c>
-      <c r="G28" t="n">
-        <v>157.2102971321943</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-      <c r="I28" t="n">
-        <v>64.18083504753427</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>631.650666</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B30" t="n">
-        <v>30</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>664.4663037571428</v>
-      </c>
-      <c r="G30" t="n">
         <v>138.0250725936971</v>
       </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
         <v>52.16857382493704</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Tablet</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>652.416694</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>